--- a/صيدليات دكتور مصطفي طلعت_2026-01-08_22-01.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-08_22-01.xlsx
@@ -77,6 +77,9 @@
     <t>AWADIST 1000 MG 20 F.C. TABS.</t>
   </si>
   <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>BETADERM 0.1% CREAM 15 GM</t>
   </si>
   <si>
@@ -131,9 +134,6 @@
     <t>COLD FREE 20 TAB.</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CONGESTAL SYRUP 120 ML</t>
   </si>
   <si>
@@ -278,6 +278,9 @@
     <t>METAPSIN 10 F.C. TABS.</t>
   </si>
   <si>
+    <t xml:space="preserve">MOVXIR 50/500  TAB </t>
+  </si>
+  <si>
     <t>NEVILOB PLUS 5/12.5 MG 20 TAB</t>
   </si>
   <si>
@@ -356,6 +359,9 @@
     <t>WINZOXIB 120 MG 7 F.C.TABS.</t>
   </si>
   <si>
+    <t>XORAXON 1GM I.V. VIAL</t>
+  </si>
+  <si>
     <t>YOUCAN HYDRA GEL</t>
   </si>
   <si>
@@ -392,13 +398,16 @@
     <t>سرنجات 10 سم</t>
   </si>
   <si>
-    <t>-2:0</t>
+    <t>-3:0</t>
   </si>
   <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>25:0</t>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t>26:0</t>
   </si>
   <si>
     <t>سرنجات انسولين</t>
@@ -411,9 +420,6 @@
   </si>
   <si>
     <t xml:space="preserve">كالونا </t>
-  </si>
-  <si>
-    <t>-1:0</t>
   </si>
   <si>
     <t>محلول ملح</t>
@@ -1238,17 +1244,17 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" ht="25.5" customHeight="1">
@@ -1256,7 +1262,7 @@
         <v>10</v>
       </c>
       <c t="s" r="B13" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -1264,7 +1270,7 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
@@ -1282,7 +1288,7 @@
         <v>11</v>
       </c>
       <c t="s" r="B14" s="7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -1308,7 +1314,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B15" s="7">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1316,7 +1322,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1334,7 +1340,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1360,7 +1366,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1368,7 +1374,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1386,7 +1392,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1394,7 +1400,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
@@ -1404,7 +1410,7 @@
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1412,7 +1418,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1420,7 +1426,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
@@ -1438,7 +1444,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1446,7 +1452,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
@@ -1464,7 +1470,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1490,7 +1496,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B22" s="7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1498,7 +1504,7 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
@@ -1516,7 +1522,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1524,7 +1530,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1542,7 +1548,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1550,7 +1556,7 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
@@ -1976,7 +1982,7 @@
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -2002,7 +2008,7 @@
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2070,7 +2076,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2200,7 +2206,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2460,7 +2466,7 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
@@ -2512,17 +2518,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2538,13 +2544,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2564,13 +2570,13 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2590,17 +2596,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2608,7 +2614,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2616,17 +2622,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2642,17 +2648,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>23.039999999999999</v>
+        <v>38</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2668,17 +2674,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>23</v>
+        <v>23.039999999999999</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2694,13 +2700,13 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>188</v>
+        <v>23</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
@@ -2712,7 +2718,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2720,17 +2726,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2746,13 +2752,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>120</v>
+        <v>56</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2778,7 +2784,7 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
@@ -2798,13 +2804,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>195</v>
+        <v>65</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2830,11 +2836,11 @@
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>56</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2850,17 +2856,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>19</v>
+        <v>56</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2876,17 +2882,17 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2902,13 +2908,13 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
@@ -2928,13 +2934,13 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
@@ -2954,17 +2960,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -2972,7 +2978,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2980,17 +2986,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3006,17 +3012,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>15</v>
+        <v>192</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>83</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3024,7 +3030,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3032,17 +3038,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>98</v>
+        <v>15</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>11</v>
+        <v>83</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3064,7 +3070,7 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>57</v>
+        <v>98</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
@@ -3090,7 +3096,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>220</v>
+        <v>57</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
@@ -3110,7 +3116,7 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
@@ -3120,7 +3126,7 @@
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3136,13 +3142,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>-96</v>
+        <v>220</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3162,13 +3168,13 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>96</v>
+        <v>168</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
@@ -3188,13 +3194,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>-25</v>
+        <v>-96</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3206,7 +3212,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3214,13 +3220,13 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
@@ -3232,7 +3238,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3240,13 +3246,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>320</v>
+        <v>-25</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3258,7 +3264,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3266,17 +3272,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3284,7 +3290,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3292,17 +3298,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>8</v>
+        <v>320</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3310,7 +3316,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3324,11 +3330,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3336,7 +3342,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3344,17 +3350,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3362,7 +3368,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3370,17 +3376,17 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
-        <v>11</v>
+        <v>132</v>
       </c>
     </row>
     <row r="95" ht="25.5" customHeight="1">
@@ -3402,7 +3408,7 @@
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3422,17 +3428,17 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>136</v>
+        <v>85</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -3440,7 +3446,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3448,17 +3454,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>18</v>
+        <v>131</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>44.100000000000001</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3466,7 +3472,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3474,17 +3480,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>26</v>
+        <v>138</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3500,13 +3506,13 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
@@ -3526,13 +3532,13 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
@@ -3552,51 +3558,103 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="102" ht="26.25" customHeight="1">
-      <c r="K102" s="10">
-        <v>6302.54</v>
-      </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="10"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="11">
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="A102" s="6">
+        <v>99</v>
+      </c>
+      <c t="s" r="B102" s="7">
+        <v>142</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c t="s" r="H102" s="8">
+        <v>62</v>
+      </c>
+      <c r="I102" s="8"/>
+      <c r="J102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="9">
+        <v>65</v>
+      </c>
+      <c r="M102" s="9"/>
+      <c t="s" r="N102" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" ht="25.5" customHeight="1">
+      <c r="A103" s="6">
+        <v>100</v>
+      </c>
+      <c t="s" r="B103" s="7">
         <v>143</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c t="s" r="F103" s="12">
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c t="s" r="H103" s="8">
         <v>144</v>
       </c>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-      <c t="s" r="I103" s="14">
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="9">
+        <v>35</v>
+      </c>
+      <c r="M103" s="9"/>
+      <c t="s" r="N103" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="K104" s="10">
+        <v>6567.6400000000003</v>
+      </c>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="11">
         <v>145</v>
       </c>
-      <c r="J103" s="14"/>
-      <c r="K103" s="14"/>
-      <c r="L103" s="14"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="14"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c t="s" r="F105" s="12">
+        <v>146</v>
+      </c>
+      <c r="G105" s="12"/>
+      <c r="H105" s="13"/>
+      <c t="s" r="I105" s="14">
+        <v>147</v>
+      </c>
+      <c r="J105" s="14"/>
+      <c r="K105" s="14"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="14"/>
+      <c r="N105" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="305">
+  <mergeCells count="311">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3898,10 +3956,16 @@
     <mergeCell ref="B101:G101"/>
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
-    <mergeCell ref="K102:N102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="I103:N103"/>
+    <mergeCell ref="B102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="B103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="K104:N104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="I105:N105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
